--- a/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
+++ b/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us\InputData\elec\NSDoNCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\elec\NSDoNCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11025" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
   <si>
     <t>Source:</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>NSDoNCC Normalized Std Dev of New Capital Costs</t>
-  </si>
-  <si>
-    <t>Norm St Dev of New Capital Costs</t>
   </si>
   <si>
     <t>unit capital costs. The CRS study contains published values for coal, natural gas combined cycle (nonpeakers)</t>
@@ -316,6 +313,18 @@
   </si>
   <si>
     <t>solar PV and the availability of data published by NREL, we use data from the Berkeley Lab to</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>Norm St Dev of New Capital Costs (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -958,18 +967,95 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -979,89 +1065,12 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Body: normal cell" xfId="4"/>
@@ -1355,26 +1364,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78.265625" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,143 +1392,143 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2008</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1540,14 +1549,14 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -1558,9 +1567,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="8">
         <v>2857</v>
@@ -1569,9 +1578,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="8">
         <v>2083</v>
@@ -1584,9 +1593,9 @@
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="8">
         <v>2433</v>
@@ -1595,9 +1604,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8">
         <v>2499</v>
@@ -1606,9 +1615,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8">
         <v>2250</v>
@@ -1617,9 +1626,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8">
         <v>3073</v>
@@ -1628,9 +1637,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8">
         <v>2571</v>
@@ -1639,9 +1648,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="8">
         <v>2440</v>
@@ -1650,9 +1659,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8">
         <v>2467</v>
@@ -1661,7 +1670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1705,7 +1714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +1736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>3</v>
       </c>
@@ -1749,7 +1758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
@@ -1760,7 +1769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -1793,7 +1802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
@@ -1826,7 +1835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>5</v>
       </c>
@@ -1859,7 +1868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
@@ -1881,7 +1890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>5</v>
       </c>
@@ -1903,7 +1912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>5</v>
       </c>
@@ -1914,7 +1923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>12</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>12</v>
       </c>
@@ -1936,7 +1945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>12</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
@@ -1980,7 +1989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>7</v>
       </c>
@@ -2002,7 +2011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>7</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -2057,7 +2066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>6</v>
       </c>
@@ -2068,7 +2077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>10</v>
       </c>
@@ -2092,23 +2101,23 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="22.73046875" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="6" width="9.265625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" customWidth="1"/>
-    <col min="11" max="11" width="13.73046875" customWidth="1"/>
-    <col min="12" max="12" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
@@ -2147,7 +2156,7 @@
       </c>
       <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="6">
         <v>3683</v>
@@ -2181,7 +2190,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="6">
         <v>3683</v>
@@ -2215,7 +2224,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="6">
         <v>2542</v>
@@ -2249,7 +2258,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="6">
         <v>3045</v>
@@ -2283,7 +2292,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="6">
         <v>4104</v>
@@ -2315,7 +2324,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="6">
         <v>3060</v>
@@ -2345,7 +2354,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="6">
         <v>3104</v>
@@ -2375,7 +2384,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="6">
         <v>3514</v>
@@ -2405,7 +2414,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="13"/>
       <c r="C10" s="6">
@@ -2431,7 +2440,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="13"/>
       <c r="C11" s="6">
@@ -2455,7 +2464,7 @@
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="13"/>
       <c r="C12" s="6">
@@ -2479,7 +2488,7 @@
       </c>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="13"/>
       <c r="C13" s="6">
@@ -2503,7 +2512,7 @@
       </c>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="13"/>
       <c r="C14" s="6">
@@ -2525,7 +2534,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="13"/>
       <c r="C15" s="6">
@@ -2547,7 +2556,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="13"/>
       <c r="C16" s="6">
@@ -2567,7 +2576,7 @@
       </c>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="13"/>
       <c r="C17" s="6">
@@ -2587,7 +2596,7 @@
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="13"/>
       <c r="C18" s="6">
@@ -2603,7 +2612,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="13"/>
       <c r="C19" s="6">
@@ -2619,7 +2628,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2633,7 +2642,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2647,7 +2656,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2661,7 +2670,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2675,7 +2684,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2689,7 +2698,7 @@
       <c r="K24" s="13"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2703,7 +2712,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>15</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>146.68162802478025</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>14</v>
       </c>
@@ -2812,522 +2821,522 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="17.1328125" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" customWidth="1"/>
-    <col min="9" max="9" width="10.1328125" customWidth="1"/>
-    <col min="11" max="11" width="17.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="32" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="33" t="s">
+      <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
+    </row>
+    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60"/>
+      <c r="B4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-    </row>
-    <row r="4" spans="1:13" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38" t="s">
+      <c r="C4" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="F4" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="40" t="s">
+      <c r="M4" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="41" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="42" t="s">
+      <c r="B5" s="37">
+        <v>3.9144099055272745</v>
+      </c>
+      <c r="C5" s="37">
+        <v>3.6813171540272736</v>
+      </c>
+      <c r="D5" s="37">
+        <v>3.5202712529909097</v>
+      </c>
+      <c r="E5" s="38">
+        <v>4.3085485580636398</v>
+      </c>
+      <c r="F5" s="39">
+        <v>8.1494922782228851</v>
+      </c>
+      <c r="G5" s="40">
+        <v>7.6010876379247039</v>
+      </c>
+      <c r="H5" s="40">
+        <v>7.212985892482914</v>
+      </c>
+      <c r="I5" s="41">
+        <v>9.0859986639628563</v>
+      </c>
+      <c r="J5" s="39">
+        <v>6.5886483019895996</v>
+      </c>
+      <c r="K5" s="40">
+        <v>6.2119558799752195</v>
+      </c>
+      <c r="L5" s="42">
+        <v>5</v>
+      </c>
+      <c r="M5" s="43">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="37">
+        <v>4.8009146962644929</v>
+      </c>
+      <c r="C6" s="37">
+        <v>4.2157678525637996</v>
+      </c>
+      <c r="D6" s="37">
+        <v>3.8722044569166716</v>
+      </c>
+      <c r="E6" s="38">
+        <v>5.3046258843192442</v>
+      </c>
+      <c r="F6" s="45">
+        <v>6.4446953207338407</v>
+      </c>
+      <c r="G6" s="37">
+        <v>6.1902079988480327</v>
+      </c>
+      <c r="H6" s="37">
+        <v>5.5702007242807428</v>
+      </c>
+      <c r="I6" s="46">
+        <v>7.6304423195186777</v>
+      </c>
+      <c r="J6" s="45">
+        <v>5.1026755246398139</v>
+      </c>
+      <c r="K6" s="37">
+        <v>4.7204585279863105</v>
+      </c>
+      <c r="L6" s="47">
+        <v>10</v>
+      </c>
+      <c r="M6" s="48">
+        <v>175.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="37">
+        <v>4.4752020304832012</v>
+      </c>
+      <c r="C7" s="37">
+        <v>4.4038552413667071</v>
+      </c>
+      <c r="D7" s="37">
+        <v>3.7438521635643833</v>
+      </c>
+      <c r="E7" s="38">
+        <v>5.0040533975665715</v>
+      </c>
+      <c r="F7" s="45">
+        <v>4.4638016198931165</v>
+      </c>
+      <c r="G7" s="37">
+        <v>4.5202660401038166</v>
+      </c>
+      <c r="H7" s="37">
+        <v>4.0082035984125435</v>
+      </c>
+      <c r="I7" s="46">
+        <v>5.0515017818863672</v>
+      </c>
+      <c r="J7" s="45">
+        <v>4.4752020304832012</v>
+      </c>
+      <c r="K7" s="37">
+        <v>4.4587393994753288</v>
+      </c>
+      <c r="L7" s="47">
+        <v>29</v>
+      </c>
+      <c r="M7" s="48">
+        <v>427.78999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="37">
+        <v>3.6277141990526971</v>
+      </c>
+      <c r="C8" s="37">
+        <v>3.4226441916755546</v>
+      </c>
+      <c r="D8" s="37">
+        <v>3.174585960529765</v>
+      </c>
+      <c r="E8" s="38">
+        <v>4.3981022210288874</v>
+      </c>
+      <c r="F8" s="45">
+        <v>4.1904440994079302</v>
+      </c>
+      <c r="G8" s="37">
+        <v>4.331107758378093</v>
+      </c>
+      <c r="H8" s="37">
+        <v>4.1298554331528754</v>
+      </c>
+      <c r="I8" s="46">
+        <v>4.6547378457950588</v>
+      </c>
+      <c r="J8" s="45">
+        <v>4.138532073030845</v>
+      </c>
+      <c r="K8" s="37">
+        <v>3.7832613087278024</v>
+      </c>
+      <c r="L8" s="47">
+        <v>40</v>
+      </c>
+      <c r="M8" s="48">
+        <v>914.79399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="37">
+        <v>3.6688842725659478</v>
+      </c>
+      <c r="C9" s="37">
+        <v>3.7613248559670618</v>
+      </c>
+      <c r="D9" s="37">
+        <v>3.0238722825341564</v>
+      </c>
+      <c r="E9" s="38">
+        <v>4.2973811763266898</v>
+      </c>
+      <c r="F9" s="45">
+        <v>3.8315811855901529</v>
+      </c>
+      <c r="G9" s="37">
+        <v>4.1060696615563126</v>
+      </c>
+      <c r="H9" s="37">
+        <v>3.4008089602146985</v>
+      </c>
+      <c r="I9" s="46">
+        <v>4.372582114760772</v>
+      </c>
+      <c r="J9" s="45">
+        <v>3.6931179502025016</v>
+      </c>
+      <c r="K9" s="37">
+        <v>3.9502559455081609</v>
+      </c>
+      <c r="L9" s="47">
+        <v>38</v>
+      </c>
+      <c r="M9" s="48">
+        <v>1343.7889999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="37">
+        <v>3.1237826469444467</v>
+      </c>
+      <c r="C10" s="37">
+        <v>3.8124073955915994</v>
+      </c>
+      <c r="D10" s="37">
+        <v>2.6208947050717888</v>
+      </c>
+      <c r="E10" s="38">
+        <v>3.9764273740970499</v>
+      </c>
+      <c r="F10" s="45">
+        <v>3.2275672995917599</v>
+      </c>
+      <c r="G10" s="37">
+        <v>3.7883697335436373</v>
+      </c>
+      <c r="H10" s="37">
+        <v>2.5954323356551661</v>
+      </c>
+      <c r="I10" s="46">
+        <v>4.2319891215668823</v>
+      </c>
+      <c r="J10" s="45">
+        <v>3.1315397408770291</v>
+      </c>
+      <c r="K10" s="37">
+        <v>3.802643754500048</v>
+      </c>
+      <c r="L10" s="47">
+        <v>64</v>
+      </c>
+      <c r="M10" s="48">
+        <v>3166.3595000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="49">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="50">
+        <v>2.5100236390040873</v>
+      </c>
+      <c r="C11" s="51">
+        <v>2.4663045198462825</v>
+      </c>
+      <c r="D11" s="51">
+        <v>2.0306330363960297</v>
+      </c>
+      <c r="E11" s="52">
+        <v>3.2453329520500516</v>
+      </c>
+      <c r="F11" s="53">
+        <v>2.9247457386562412</v>
+      </c>
+      <c r="G11" s="51">
+        <v>3.4135734811605576</v>
+      </c>
+      <c r="H11" s="51">
+        <v>2.3256329345889539</v>
+      </c>
+      <c r="I11" s="54">
+        <v>3.5695144784205359</v>
+      </c>
+      <c r="J11" s="53">
+        <v>2.8108156655637568</v>
+      </c>
+      <c r="K11" s="51">
+        <v>3.1305859557674611</v>
+      </c>
+      <c r="L11" s="55">
+        <v>87</v>
+      </c>
+      <c r="M11" s="56">
+        <v>2869.6819999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="50">
+        <v>2.2668519416619106</v>
+      </c>
+      <c r="C12" s="51">
+        <v>2.8625569908696802</v>
+      </c>
+      <c r="D12" s="51">
+        <v>1.8995699551441392</v>
+      </c>
+      <c r="E12" s="52">
+        <v>3.2440423131531717</v>
+      </c>
+      <c r="F12" s="53">
+        <v>2.3375069464261395</v>
+      </c>
+      <c r="G12" s="51">
+        <v>2.3038721769513564</v>
+      </c>
+      <c r="H12" s="51">
+        <v>2.0370092356573561</v>
+      </c>
+      <c r="I12" s="54">
+        <v>2.870500861635672</v>
+      </c>
+      <c r="J12" s="53">
+        <v>2.3336239668093404</v>
+      </c>
+      <c r="K12" s="51">
+        <v>2.4161466714039159</v>
+      </c>
+      <c r="L12" s="55">
+        <v>157</v>
+      </c>
+      <c r="M12" s="56">
+        <v>7468.993999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="50">
+        <v>2.0491852214151827</v>
+      </c>
+      <c r="C13" s="51">
+        <v>2.0043665964367037</v>
+      </c>
+      <c r="D13" s="51">
+        <v>1.8866850471052807</v>
+      </c>
+      <c r="E13" s="52">
+        <v>2.1449119700000003</v>
+      </c>
+      <c r="F13" s="53">
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="G13" s="51">
+        <v>2.0600541349245414</v>
+      </c>
+      <c r="H13" s="51">
+        <v>1.6098484848484849</v>
+      </c>
+      <c r="I13" s="54">
+        <v>2.2362264705566055</v>
+      </c>
+      <c r="J13" s="53">
+        <v>1.9952219873604227</v>
+      </c>
+      <c r="K13" s="51">
+        <v>2.0422558783676759</v>
+      </c>
+      <c r="L13" s="55">
+        <v>76</v>
+      </c>
+      <c r="M13" s="56">
+        <v>2303.190000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="43">
-        <v>3.9144099055272745</v>
-      </c>
-      <c r="C5" s="43">
-        <v>3.6813171540272736</v>
-      </c>
-      <c r="D5" s="43">
-        <v>3.5202712529909097</v>
-      </c>
-      <c r="E5" s="44">
-        <v>4.3085485580636398</v>
-      </c>
-      <c r="F5" s="45">
-        <v>8.1494922782228851</v>
-      </c>
-      <c r="G5" s="46">
-        <v>7.6010876379247039</v>
-      </c>
-      <c r="H5" s="46">
-        <v>7.212985892482914</v>
-      </c>
-      <c r="I5" s="47">
-        <v>9.0859986639628563</v>
-      </c>
-      <c r="J5" s="45">
-        <v>6.5886483019895996</v>
-      </c>
-      <c r="K5" s="46">
-        <v>6.2119558799752195</v>
-      </c>
-      <c r="L5" s="48">
-        <v>5</v>
-      </c>
-      <c r="M5" s="49">
-        <v>74.900000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="50">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="43">
-        <v>4.8009146962644929</v>
-      </c>
-      <c r="C6" s="43">
-        <v>4.2157678525637996</v>
-      </c>
-      <c r="D6" s="43">
-        <v>3.8722044569166716</v>
-      </c>
-      <c r="E6" s="44">
-        <v>5.3046258843192442</v>
-      </c>
-      <c r="F6" s="51">
-        <v>6.4446953207338407</v>
-      </c>
-      <c r="G6" s="43">
-        <v>6.1902079988480327</v>
-      </c>
-      <c r="H6" s="43">
-        <v>5.5702007242807428</v>
-      </c>
-      <c r="I6" s="52">
-        <v>7.6304423195186777</v>
-      </c>
-      <c r="J6" s="51">
-        <v>5.1026755246398139</v>
-      </c>
-      <c r="K6" s="43">
-        <v>4.7204585279863105</v>
-      </c>
-      <c r="L6" s="53">
-        <v>10</v>
-      </c>
-      <c r="M6" s="54">
-        <v>175.07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="43">
-        <v>4.4752020304832012</v>
-      </c>
-      <c r="C7" s="43">
-        <v>4.4038552413667071</v>
-      </c>
-      <c r="D7" s="43">
-        <v>3.7438521635643833</v>
-      </c>
-      <c r="E7" s="44">
-        <v>5.0040533975665715</v>
-      </c>
-      <c r="F7" s="51">
-        <v>4.4638016198931165</v>
-      </c>
-      <c r="G7" s="43">
-        <v>4.5202660401038166</v>
-      </c>
-      <c r="H7" s="43">
-        <v>4.0082035984125435</v>
-      </c>
-      <c r="I7" s="52">
-        <v>5.0515017818863672</v>
-      </c>
-      <c r="J7" s="51">
-        <v>4.4752020304832012</v>
-      </c>
-      <c r="K7" s="43">
-        <v>4.4587393994753288</v>
-      </c>
-      <c r="L7" s="53">
-        <v>29</v>
-      </c>
-      <c r="M7" s="54">
-        <v>427.78999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="50">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="43">
-        <v>3.6277141990526971</v>
-      </c>
-      <c r="C8" s="43">
-        <v>3.4226441916755546</v>
-      </c>
-      <c r="D8" s="43">
-        <v>3.174585960529765</v>
-      </c>
-      <c r="E8" s="44">
-        <v>4.3981022210288874</v>
-      </c>
-      <c r="F8" s="51">
-        <v>4.1904440994079302</v>
-      </c>
-      <c r="G8" s="43">
-        <v>4.331107758378093</v>
-      </c>
-      <c r="H8" s="43">
-        <v>4.1298554331528754</v>
-      </c>
-      <c r="I8" s="52">
-        <v>4.6547378457950588</v>
-      </c>
-      <c r="J8" s="51">
-        <v>4.138532073030845</v>
-      </c>
-      <c r="K8" s="43">
-        <v>3.7832613087278024</v>
-      </c>
-      <c r="L8" s="53">
-        <v>40</v>
-      </c>
-      <c r="M8" s="54">
-        <v>914.79399999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="50">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="43">
-        <v>3.6688842725659478</v>
-      </c>
-      <c r="C9" s="43">
-        <v>3.7613248559670618</v>
-      </c>
-      <c r="D9" s="43">
-        <v>3.0238722825341564</v>
-      </c>
-      <c r="E9" s="44">
-        <v>4.2973811763266898</v>
-      </c>
-      <c r="F9" s="51">
-        <v>3.8315811855901529</v>
-      </c>
-      <c r="G9" s="43">
-        <v>4.1060696615563126</v>
-      </c>
-      <c r="H9" s="43">
-        <v>3.4008089602146985</v>
-      </c>
-      <c r="I9" s="52">
-        <v>4.372582114760772</v>
-      </c>
-      <c r="J9" s="51">
-        <v>3.6931179502025016</v>
-      </c>
-      <c r="K9" s="43">
-        <v>3.9502559455081609</v>
-      </c>
-      <c r="L9" s="53">
-        <v>38</v>
-      </c>
-      <c r="M9" s="54">
-        <v>1343.7889999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="50">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="43">
-        <v>3.1237826469444467</v>
-      </c>
-      <c r="C10" s="43">
-        <v>3.8124073955915994</v>
-      </c>
-      <c r="D10" s="43">
-        <v>2.6208947050717888</v>
-      </c>
-      <c r="E10" s="44">
-        <v>3.9764273740970499</v>
-      </c>
-      <c r="F10" s="51">
-        <v>3.2275672995917599</v>
-      </c>
-      <c r="G10" s="43">
-        <v>3.7883697335436373</v>
-      </c>
-      <c r="H10" s="43">
-        <v>2.5954323356551661</v>
-      </c>
-      <c r="I10" s="52">
-        <v>4.2319891215668823</v>
-      </c>
-      <c r="J10" s="51">
-        <v>3.1315397408770291</v>
-      </c>
-      <c r="K10" s="43">
-        <v>3.802643754500048</v>
-      </c>
-      <c r="L10" s="53">
-        <v>64</v>
-      </c>
-      <c r="M10" s="54">
-        <v>3166.3595000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="55">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="56">
-        <v>2.5100236390040873</v>
-      </c>
-      <c r="C11" s="57">
-        <v>2.4663045198462825</v>
-      </c>
-      <c r="D11" s="57">
-        <v>2.0306330363960297</v>
-      </c>
-      <c r="E11" s="58">
-        <v>3.2453329520500516</v>
-      </c>
-      <c r="F11" s="59">
-        <v>2.9247457386562412</v>
-      </c>
-      <c r="G11" s="57">
-        <v>3.4135734811605576</v>
-      </c>
-      <c r="H11" s="57">
-        <v>2.3256329345889539</v>
-      </c>
-      <c r="I11" s="60">
-        <v>3.5695144784205359</v>
-      </c>
-      <c r="J11" s="59">
-        <v>2.8108156655637568</v>
-      </c>
-      <c r="K11" s="57">
-        <v>3.1305859557674611</v>
-      </c>
-      <c r="L11" s="61">
-        <v>87</v>
-      </c>
-      <c r="M11" s="62">
-        <v>2869.6819999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="55">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="56">
-        <v>2.2668519416619106</v>
-      </c>
-      <c r="C12" s="57">
-        <v>2.8625569908696802</v>
-      </c>
-      <c r="D12" s="57">
-        <v>1.8995699551441392</v>
-      </c>
-      <c r="E12" s="58">
-        <v>3.2440423131531717</v>
-      </c>
-      <c r="F12" s="59">
-        <v>2.3375069464261395</v>
-      </c>
-      <c r="G12" s="57">
-        <v>2.3038721769513564</v>
-      </c>
-      <c r="H12" s="57">
-        <v>2.0370092356573561</v>
-      </c>
-      <c r="I12" s="60">
-        <v>2.870500861635672</v>
-      </c>
-      <c r="J12" s="59">
-        <v>2.3336239668093404</v>
-      </c>
-      <c r="K12" s="57">
-        <v>2.4161466714039159</v>
-      </c>
-      <c r="L12" s="61">
-        <v>157</v>
-      </c>
-      <c r="M12" s="62">
-        <v>7468.993999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="55">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="56">
-        <v>2.0491852214151827</v>
-      </c>
-      <c r="C13" s="57">
-        <v>2.0043665964367037</v>
-      </c>
-      <c r="D13" s="57">
-        <v>1.8866850471052807</v>
-      </c>
-      <c r="E13" s="58">
-        <v>2.1449119700000003</v>
-      </c>
-      <c r="F13" s="59">
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="G13" s="57">
-        <v>2.0600541349245414</v>
-      </c>
-      <c r="H13" s="57">
-        <v>1.6098484848484849</v>
-      </c>
-      <c r="I13" s="60">
-        <v>2.2362264705566055</v>
-      </c>
-      <c r="J13" s="59">
-        <v>1.9952219873604227</v>
-      </c>
-      <c r="K13" s="57">
-        <v>2.0422558783676759</v>
-      </c>
-      <c r="L13" s="61">
-        <v>76</v>
-      </c>
-      <c r="M13" s="62">
-        <v>2303.190000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="63" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="64">
+      <c r="D17" s="57">
         <f>C13</f>
         <v>2.0043665964367037</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="65">
+        <v>79</v>
+      </c>
+      <c r="D18" s="58">
         <f>E13</f>
         <v>2.1449119700000003</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <f>(D18-D17)/D20</f>
         <v>0.16731592090868649</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20">
         <v>0.84</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22">
         <f>D19/D17</f>
@@ -3351,142 +3360,169 @@
   <sheetPr>
     <tabColor rgb="FF215381"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="32.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="27">
+        <v>60</v>
+      </c>
+      <c r="B2" s="26">
         <f>STDEV(CRS!B2:B10)/AVERAGE(CRS!B2:B10)</f>
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <f>STDEV(CRS!B20:B26)/AVERAGE(CRS!B20:B26)</f>
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <f>STDEV(CRS!B11:B19)/AVERAGE(CRS!B11:B19)</f>
         <v>0.22951832790705273</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <f>INDEX('E3 Data'!$B$27:$L$27,1,ROW(A4))</f>
         <v>0.6323412969779878</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="27">
+        <v>59</v>
+      </c>
+      <c r="B6" s="26">
         <f>STDEV(CRS!B27:B33)/AVERAGE(CRS!B27:B33)</f>
         <v>0.17425352832467156</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <f>PV!D22</f>
         <v>8.3475708089595577E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <f>STDEV(CRS!B38:B46)/AVERAGE(CRS!B38:B46)</f>
         <v>0.11955441996991129</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <f>INDEX('E3 Data'!$B$27:$L$27,1,ROW(A8))</f>
         <v>0.2969718751850845</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="26">
+        <f>STDEV(CRS!B34:B37)/AVERAGE(CRS!B34:B37)</f>
+        <v>0.1962978819110564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B11" s="26">
         <f>B3</f>
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="27">
-        <f>STDEV(CRS!B34:B37)/AVERAGE(CRS!B34:B37)</f>
-        <v>0.1962978819110564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="27">
-        <f>INDEX('E3 Data'!$B$27:$L$27,1,ROW(A11))</f>
-        <v>0.11583176732675461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="29">
+      <c r="B12" s="26">
+        <f>INDEX('E3 Data'!$B$27:$L$27,1,ROW(A10))</f>
+        <v>0.37017095779576853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="28">
         <f>B2</f>
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="29">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="28">
         <f>B6</f>
         <v>0.17425352832467156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="28">
+        <f>B11</f>
+        <v>0.11586187975255104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="28">
+        <f>B11</f>
+        <v>0.11586187975255104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="28">
+        <f>B9</f>
+        <v>0.2969718751850845</v>
       </c>
     </row>
   </sheetData>
